--- a/细节优化-不定期更新/三月工作清单-郑振彪.xlsx
+++ b/细节优化-不定期更新/三月工作清单-郑振彪.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0171C1-D13E-4EF0-8263-593C4E788632}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA924933-16C4-4938-BD8C-30DAD8551C63}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>接受时间</t>
   </si>
@@ -129,6 +129,26 @@
   </si>
   <si>
     <t>完成周对比表的页面框架设计与复杂逻辑运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接手和对接周对比页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事日报表更新新字段，重新排列宽度，改动相关页面布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月流失率数据格式更换，完善页面布局，增加柱状图显示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管控页面和SMT信息页面动态给图片增加旋转按钮，且旋转后需要动态适应模态框宽度，将图片转换为canvas操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善批量老化开始和结束页面的输入逻辑和按钮逻辑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.625" defaultRowHeight="30.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -754,10 +774,61 @@
         <v>43546.722222222219</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43549.354166666664</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43549.6875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43549.6875</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43553.486111111109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43550.673611111109</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43550.701388888891</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43550.673611111109</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43552.625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43552.673611111109</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43553.465277777781</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" ht="56.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
